--- a/biology/Botanique/Spunta/Spunta.xlsx
+++ b/biology/Botanique/Spunta/Spunta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La 'Spunta' est une variété cultivée de pomme de terre d'origine néerlandaise, aux tubercules à peau jaune de grande taille et de forme allongée, d'utilisation assez polyvalente en cuisine.
-Cette variété est inscrite au catalogue officiel des variétés en Espagne, en France, en Grèce, au Luxembourg et aux Pays-Bas depuis le 31 décembre 1967[1].
-C'est l'une des variétés parmi les plus cultivées dans l’Europe du Nord-Ouest, notamment aux Pays-Bas et en France où elle a pris la première place, devant la 'Bintje', dans les emblavements de plants, souvent destinés à l'exportation vers le bassin méditerranéen[2]. Elle est très cultivée dans les pays méditerranéens (Maghreb, Égypte) pour la production de pommes de terre nouvelles exportées vers l'Europe.
+Cette variété est inscrite au catalogue officiel des variétés en Espagne, en France, en Grèce, au Luxembourg et aux Pays-Bas depuis le 31 décembre 1967.
+C'est l'une des variétés parmi les plus cultivées dans l’Europe du Nord-Ouest, notamment aux Pays-Bas et en France où elle a pris la première place, devant la 'Bintje', dans les emblavements de plants, souvent destinés à l'exportation vers le bassin méditerranéen. Elle est très cultivée dans les pays méditerranéens (Maghreb, Égypte) pour la production de pommes de terre nouvelles exportées vers l'Europe.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Origine génétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est issue du croisement réalisé  en 1968 par un obtenteur néerlandais, J. Oldenburger, entre la variétés 'Béa' et un hybride américain, 'USDA 96-56', produit par les services de recherches du département de l'Agriculture des États-Unis[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est issue du croisement réalisé  en 1968 par un obtenteur néerlandais, J. Oldenburger, entre la variétés 'Béa' et un hybride américain, 'USDA 96-56', produit par les services de recherches du département de l'Agriculture des États-Unis.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Principales caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La 'Spunta' est une plante au port dressé, assez haute.
 Les fleurs, relativement abondantes, sont de couleur blanche, avec parfois une légère coloration à la face inférieure de la corolle. La fructification est rare.
